--- a/docs/schedule.xlsx
+++ b/docs/schedule.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Phase/Task</t>
   </si>
@@ -143,13 +143,16 @@
   </si>
   <si>
     <t>Christmas</t>
+  </si>
+  <si>
+    <t>Schedule:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +198,11 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Fira Sans"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Fira Sans SemiBold"/>
     </font>
   </fonts>
   <fills count="5">
@@ -327,7 +335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -365,8 +373,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,14 +392,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,11 +431,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -439,6 +454,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -457,6 +474,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -789,10 +808,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -802,121 +821,94 @@
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="20">
+      <c r="A1" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6" t="s">
+    <row r="4" spans="1:12" ht="28" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -926,71 +918,71 @@
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1001,128 +993,128 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="28" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="28" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6" t="s">
+    <row r="15" spans="1:12" ht="28" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1130,15 +1122,15 @@
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1146,15 +1138,15 @@
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1162,15 +1154,15 @@
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1178,54 +1170,86 @@
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3"/>
     </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="F14:H21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F16:H23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="1.2480314960629921" right="1.2480314960629921" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -1238,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
